--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood.Furniture.Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D6F1D-4AA5-4341-9EDC-9160A0D95FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68B377-2D20-4FD7-B31B-49A3E0722A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Кол-во, шт</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>Длина общая, мм</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +160,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,604 +458,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
+        <f>C2*F2</f>
+        <v>15912</v>
+      </c>
+      <c r="C2" s="2">
         <v>442</v>
       </c>
-      <c r="C2" s="1">
-        <v>120</v>
-      </c>
       <c r="D2" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1">
         <v>36</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <f>F2/E2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B23" si="0">C3*F3</f>
+        <v>2460</v>
+      </c>
+      <c r="C3" s="2">
         <v>615</v>
       </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
       <c r="D3" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G23" si="0">F3/E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H23" si="1">G3/F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
+        <f t="shared" si="0"/>
+        <v>16464</v>
+      </c>
+      <c r="C4" s="2">
         <v>686</v>
       </c>
-      <c r="C4" s="1">
-        <v>120</v>
-      </c>
       <c r="D4" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
         <v>24</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+      <c r="C5" s="2">
         <v>800</v>
       </c>
-      <c r="C5" s="1">
-        <v>120</v>
-      </c>
       <c r="D5" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
         <v>36</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>6612</v>
+      </c>
+      <c r="C6" s="2">
         <v>551</v>
       </c>
-      <c r="C6" s="1">
-        <v>120</v>
-      </c>
       <c r="D6" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="C7" s="2">
         <v>650</v>
       </c>
-      <c r="C7" s="1">
-        <v>120</v>
-      </c>
       <c r="D7" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>1416</v>
+      </c>
+      <c r="C8" s="2">
         <v>354</v>
       </c>
-      <c r="C8" s="1">
-        <v>120</v>
-      </c>
       <c r="D8" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="1">
-        <v>120</v>
-      </c>
       <c r="D9" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>2456</v>
+      </c>
+      <c r="C10" s="2">
         <v>614</v>
       </c>
-      <c r="C10" s="1">
-        <v>120</v>
-      </c>
       <c r="D10" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>9680</v>
+      </c>
+      <c r="C11" s="2">
         <v>242</v>
       </c>
-      <c r="C11" s="1">
-        <v>120</v>
-      </c>
       <c r="D11" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
         <v>40</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>4920</v>
+      </c>
+      <c r="C12" s="2">
         <v>205</v>
       </c>
-      <c r="C12" s="1">
-        <v>120</v>
-      </c>
       <c r="D12" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
         <v>24</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>15240</v>
+      </c>
+      <c r="C13" s="2">
         <v>635</v>
       </c>
-      <c r="C13" s="1">
-        <v>120</v>
-      </c>
       <c r="D13" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="C14" s="4">
         <v>706</v>
       </c>
-      <c r="C14" s="5">
-        <v>120</v>
-      </c>
       <c r="D14" s="5">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>1732</v>
+      </c>
+      <c r="C15" s="4">
         <v>866</v>
       </c>
-      <c r="C15" s="5">
-        <v>120</v>
-      </c>
       <c r="D15" s="5">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>5008</v>
+      </c>
+      <c r="C16" s="4">
         <v>626</v>
       </c>
-      <c r="C16" s="1">
-        <v>120</v>
-      </c>
-      <c r="D16" s="1">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="5">
+        <v>120</v>
+      </c>
+      <c r="E16" s="5">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>5248</v>
+      </c>
+      <c r="C17" s="2">
         <v>656</v>
       </c>
-      <c r="C17" s="1">
-        <v>120</v>
-      </c>
       <c r="D17" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1">
         <v>8</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="C18" s="2">
         <v>360</v>
       </c>
-      <c r="C18" s="1">
-        <v>120</v>
-      </c>
       <c r="D18" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>1076</v>
+      </c>
+      <c r="C19" s="2">
         <v>269</v>
       </c>
-      <c r="C19" s="1">
-        <v>120</v>
-      </c>
       <c r="D19" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="C20" s="2">
         <v>2000</v>
       </c>
-      <c r="C20" s="1">
-        <v>120</v>
-      </c>
       <c r="D20" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>4464</v>
+      </c>
+      <c r="C21" s="2">
         <v>558</v>
       </c>
-      <c r="C21" s="1">
-        <v>120</v>
-      </c>
       <c r="D21" s="1">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="C22" s="2">
         <v>600</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>99</v>
       </c>
-      <c r="D22" s="1">
-        <v>32</v>
-      </c>
       <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
         <v>656</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
+        <v>656</v>
+      </c>
+      <c r="D23" s="1">
         <v>99</v>
       </c>
-      <c r="D23" s="1">
-        <v>32</v>
-      </c>
       <c r="E23" s="1">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="7">
-        <f>SUM(B23:B23)</f>
-        <v>656</v>
-      </c>
-      <c r="C24" s="6"/>
+      <c r="B24" s="11">
+        <f>SUM(B2:B23)</f>
+        <v>144956</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f>SUM(E23:E23)</f>
-        <v>1</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6">
-        <f>SUM(F23:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f>F24/E24</f>
-        <v>0</v>
-      </c>
+        <f>SUM(F2:F23)</f>
+        <v>273</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(G2:G23)</f>
+        <v>18</v>
+      </c>
+      <c r="H24" s="8">
+        <f>G24/F24</f>
+        <v>6.5934065934065936E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="G2:G24">
+  <conditionalFormatting sqref="H2:H24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood.Furniture.Kitchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Wood.Furniture.Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68B377-2D20-4FD7-B31B-49A3E0722A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,10 +59,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -90,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,21 +135,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,28 +158,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -457,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,31 +545,31 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="12">
         <f t="shared" ref="B3:B23" si="0">C3*F3</f>
         <v>2460</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>615</v>
       </c>
-      <c r="D3" s="1">
-        <v>120</v>
-      </c>
-      <c r="E3" s="1">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D3" s="5">
+        <v>120</v>
+      </c>
+      <c r="E3" s="5">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="5">
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H23" si="1">G3/F3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,31 +657,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>650</v>
       </c>
-      <c r="D7" s="1">
-        <v>120</v>
-      </c>
-      <c r="E7" s="1">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
+      <c r="G7" s="5">
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,31 +741,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>2456</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>614</v>
       </c>
-      <c r="D10" s="1">
-        <v>120</v>
-      </c>
-      <c r="E10" s="1">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="5">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
+      <c r="G10" s="5">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,31 +825,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>15240</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="18">
         <v>635</v>
       </c>
-      <c r="D13" s="1">
-        <v>120</v>
-      </c>
-      <c r="E13" s="1">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="16">
+        <v>120</v>
+      </c>
+      <c r="E13" s="16">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16">
         <v>24</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
+      <c r="G13" s="16">
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,31 +937,31 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>5248</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>656</v>
       </c>
-      <c r="D17" s="1">
-        <v>120</v>
-      </c>
-      <c r="E17" s="1">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D17" s="5">
+        <v>120</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="1">
-        <v>6</v>
+      <c r="G17" s="5">
+        <v>8</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,31 +1049,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>4464</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>558</v>
       </c>
-      <c r="D21" s="1">
-        <v>120</v>
-      </c>
-      <c r="E21" s="1">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D21" s="5">
+        <v>120</v>
+      </c>
+      <c r="E21" s="5">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5">
         <v>8</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
+      <c r="G21" s="5">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,19 +1149,19 @@
       </c>
       <c r="G24" s="6">
         <f>SUM(G2:G23)</f>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H24" s="8">
         <f>G24/F24</f>
-        <v>6.5934065934065936E-2</v>
+        <v>0.16483516483516483</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,31 +601,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="17">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="18">
         <v>800</v>
       </c>
-      <c r="D5" s="1">
-        <v>120</v>
-      </c>
-      <c r="E5" s="1">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="16">
+        <v>120</v>
+      </c>
+      <c r="E5" s="16">
+        <v>32</v>
+      </c>
+      <c r="F5" s="16">
         <v>36</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
+      <c r="G5" s="16">
+        <v>20</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -845,11 +845,11 @@
         <v>24</v>
       </c>
       <c r="G13" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0.20833333333333334</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="G24" s="6">
         <f>SUM(G2:G23)</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H24" s="8">
         <f>G24/F24</f>
-        <v>0.16483516483516483</v>
+        <v>0.24542124542124541</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">

--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood.Furniture.Kitchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Wood.Furniture.Kitchen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77D28B-E689-431D-9F13-636A068710AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,10 +59,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -90,12 +89,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -124,10 +135,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,20 +149,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -161,10 +172,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,31 +545,31 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
-        <f t="shared" ref="B3:B23" si="0">C3*F3</f>
+      <c r="B3" s="16">
+        <f t="shared" ref="B3:B22" si="0">C3*F3</f>
         <v>2460</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="17">
         <v>615</v>
       </c>
-      <c r="D3" s="12">
-        <v>120</v>
-      </c>
-      <c r="E3" s="12">
-        <v>32</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="D3" s="15">
+        <v>120</v>
+      </c>
+      <c r="E3" s="15">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="15">
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H23" si="1">G3/F3</f>
-        <v>0</v>
+        <f t="shared" ref="H3:H22" si="1">G3/F3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,31 +601,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="20">
         <v>800</v>
       </c>
-      <c r="D5" s="12">
-        <v>120</v>
-      </c>
-      <c r="E5" s="12">
-        <v>32</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="D5" s="18">
+        <v>120</v>
+      </c>
+      <c r="E5" s="18">
+        <v>32</v>
+      </c>
+      <c r="F5" s="20">
         <v>36</v>
       </c>
-      <c r="G5" s="1">
-        <v>7</v>
+      <c r="G5" s="18">
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,31 +657,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="17">
         <v>650</v>
       </c>
-      <c r="D7" s="12">
-        <v>120</v>
-      </c>
-      <c r="E7" s="12">
-        <v>32</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="D7" s="15">
+        <v>120</v>
+      </c>
+      <c r="E7" s="15">
+        <v>32</v>
+      </c>
+      <c r="F7" s="17">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
+      <c r="G7" s="15">
+        <v>4</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,31 +741,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>2456</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="17">
         <v>614</v>
       </c>
-      <c r="D10" s="12">
-        <v>120</v>
-      </c>
-      <c r="E10" s="12">
-        <v>32</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="D10" s="15">
+        <v>120</v>
+      </c>
+      <c r="E10" s="15">
+        <v>32</v>
+      </c>
+      <c r="F10" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
+      <c r="G10" s="15">
+        <v>4</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,143 +825,143 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="19">
         <f t="shared" si="0"/>
         <v>15240</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="20">
         <v>635</v>
       </c>
-      <c r="D13" s="12">
-        <v>120</v>
-      </c>
-      <c r="E13" s="12">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="18">
+        <v>120</v>
+      </c>
+      <c r="E13" s="18">
+        <v>32</v>
+      </c>
+      <c r="F13" s="20">
         <v>24</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
+      <c r="G13" s="18">
+        <v>12</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5008</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="17">
         <v>626</v>
       </c>
-      <c r="D14" s="12">
-        <v>120</v>
-      </c>
-      <c r="E14" s="12">
-        <v>32</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="D14" s="15">
+        <v>120</v>
+      </c>
+      <c r="E14" s="15">
+        <v>32</v>
+      </c>
+      <c r="F14" s="17">
         <v>8</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
+      <c r="G14" s="15">
+        <v>8</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>1412</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="17">
         <v>706</v>
       </c>
-      <c r="D15" s="12">
-        <v>120</v>
-      </c>
-      <c r="E15" s="12">
-        <v>32</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="D15" s="15">
+        <v>120</v>
+      </c>
+      <c r="E15" s="15">
+        <v>32</v>
+      </c>
+      <c r="F15" s="17">
         <v>2</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
+      <c r="G15" s="15">
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="17">
         <v>866</v>
       </c>
-      <c r="D16" s="12">
-        <v>120</v>
-      </c>
-      <c r="E16" s="12">
-        <v>32</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="D16" s="15">
+        <v>120</v>
+      </c>
+      <c r="E16" s="15">
+        <v>32</v>
+      </c>
+      <c r="F16" s="17">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
+      <c r="G16" s="15">
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
-        <f t="shared" si="0"/>
-        <v>2624</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>5248</v>
+      </c>
+      <c r="C17" s="17">
         <v>656</v>
       </c>
-      <c r="D17" s="12">
-        <v>120</v>
-      </c>
-      <c r="E17" s="12">
-        <v>32</v>
-      </c>
-      <c r="F17" s="14">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
+      <c r="D17" s="15">
+        <v>120</v>
+      </c>
+      <c r="E17" s="15">
+        <v>32</v>
+      </c>
+      <c r="F17" s="17">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15">
+        <v>8</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,10 +1026,10 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" si="0"/>
-        <v>2624</v>
+        <v>3000</v>
       </c>
       <c r="C20" s="14">
-        <v>656</v>
+        <v>750</v>
       </c>
       <c r="D20" s="12">
         <v>120</v>
@@ -1024,52 +1049,52 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="C21" s="14">
-        <v>750</v>
-      </c>
-      <c r="D21" s="12">
-        <v>120</v>
-      </c>
-      <c r="E21" s="12">
-        <v>32</v>
-      </c>
-      <c r="F21" s="14">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>4464</v>
+      </c>
+      <c r="C21" s="17">
+        <v>558</v>
+      </c>
+      <c r="D21" s="15">
+        <v>120</v>
+      </c>
+      <c r="E21" s="15">
+        <v>32</v>
+      </c>
+      <c r="F21" s="17">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15">
+        <v>8</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
-        <f t="shared" si="0"/>
-        <v>4464</v>
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>5396</v>
       </c>
       <c r="C22" s="14">
-        <v>558</v>
-      </c>
-      <c r="D22" s="12">
-        <v>120</v>
-      </c>
-      <c r="E22" s="12">
+        <v>1349</v>
+      </c>
+      <c r="D22" s="1">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1">
         <v>32</v>
       </c>
       <c r="F22" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1079,69 +1104,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" si="0"/>
-        <v>5396</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1349</v>
-      </c>
-      <c r="D23" s="1">
-        <v>120</v>
-      </c>
-      <c r="E23" s="1">
-        <v>32</v>
-      </c>
-      <c r="F23" s="14">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8">
-        <f>SUM(B2:B23)</f>
+      <c r="B23" s="8">
+        <f>SUM(B2:B22)</f>
         <v>144216</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <f>SUM(F2:F23)</f>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <f>SUM(F2:F22)</f>
         <v>276</v>
       </c>
-      <c r="G24" s="3">
-        <f>SUM(G2:G23)</f>
-        <v>7</v>
-      </c>
-      <c r="H24" s="5">
-        <f>G24/F24</f>
-        <v>2.5362318840579712E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="G23" s="3">
+        <f>SUM(G2:G22)</f>
+        <v>78</v>
+      </c>
+      <c r="H23" s="5">
+        <f>G23/F23</f>
+        <v>0.28260869565217389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="H2:H24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="H2:H23">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,26 +629,26 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="19">
         <f t="shared" si="0"/>
         <v>6612</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <v>551</v>
       </c>
-      <c r="D6" s="12">
-        <v>120</v>
-      </c>
-      <c r="E6" s="12">
-        <v>32</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="18">
+        <v>120</v>
+      </c>
+      <c r="E6" s="18">
+        <v>32</v>
+      </c>
+      <c r="F6" s="20">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="18">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -825,31 +825,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>15240</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>635</v>
       </c>
-      <c r="D13" s="18">
-        <v>120</v>
-      </c>
-      <c r="E13" s="18">
-        <v>32</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="D13" s="15">
+        <v>120</v>
+      </c>
+      <c r="E13" s="15">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17">
         <v>24</v>
       </c>
-      <c r="G13" s="18">
-        <v>12</v>
+      <c r="G13" s="15">
+        <v>24</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,11 +1121,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G2:G22)</f>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H23" s="5">
         <f>G23/F23</f>
-        <v>0.28260869565217389</v>
+        <v>0.32608695652173914</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
